--- a/results/ReqPowDATA.xlsx
+++ b/results/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83.48265131404891</v>
+        <v>100.3729105819808</v>
       </c>
       <c r="C2" t="n">
-        <v>166.9653026280978</v>
+        <v>200.7458211639616</v>
       </c>
       <c r="D2" t="n">
-        <v>1178.992982205585</v>
+        <v>1288.669101436908</v>
       </c>
       <c r="E2" t="n">
-        <v>1669.653026280978</v>
+        <v>2007.458211639615</v>
       </c>
       <c r="F2" t="n">
-        <v>1669.653026280978</v>
+        <v>2007.458211639615</v>
       </c>
       <c r="G2" t="n">
-        <v>1494.227152063997</v>
+        <v>1808.512520348712</v>
       </c>
       <c r="H2" t="n">
-        <v>1494.227152063997</v>
+        <v>1808.512520348712</v>
       </c>
       <c r="I2" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="J2" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="K2" t="n">
-        <v>166.9653026280978</v>
+        <v>200.7458211639616</v>
       </c>
       <c r="L2" t="n">
-        <v>1669.653026280978</v>
+        <v>2007.458211639615</v>
       </c>
       <c r="M2" t="n">
-        <v>1669.653026280978</v>
+        <v>2007.458211639615</v>
       </c>
       <c r="N2" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="O2" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="P2" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="Q2" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="R2" t="n">
-        <v>166.9653026280978</v>
+        <v>200.7458211639616</v>
       </c>
       <c r="S2" t="n">
-        <v>166.9653026280978</v>
+        <v>200.7458211639616</v>
       </c>
       <c r="T2" t="n">
-        <v>166.9653026280978</v>
+        <v>200.7458211639616</v>
       </c>
       <c r="U2" t="n">
-        <v>83.48265131404891</v>
+        <v>100.3729105819808</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.48265131404891</v>
+        <v>100.3729105819808</v>
       </c>
       <c r="C3" t="n">
-        <v>166.9653026280978</v>
+        <v>200.7458211639616</v>
       </c>
       <c r="D3" t="n">
-        <v>944.8910695103414</v>
+        <v>1029.151593827621</v>
       </c>
       <c r="E3" t="n">
-        <v>1351.122290932892</v>
+        <v>1618.181950225684</v>
       </c>
       <c r="F3" t="n">
-        <v>1351.122290932892</v>
+        <v>1618.181950225684</v>
       </c>
       <c r="G3" t="n">
-        <v>1546.650540418079</v>
+        <v>1873.302346233945</v>
       </c>
       <c r="H3" t="n">
-        <v>1546.650540418079</v>
+        <v>1873.302346233945</v>
       </c>
       <c r="I3" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="J3" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="K3" t="n">
-        <v>166.9653026280978</v>
+        <v>200.7458211639616</v>
       </c>
       <c r="L3" t="n">
-        <v>1351.122290932892</v>
+        <v>1618.181950225684</v>
       </c>
       <c r="M3" t="n">
-        <v>1351.122290932892</v>
+        <v>1618.181950225684</v>
       </c>
       <c r="N3" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="O3" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="P3" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="Q3" t="n">
-        <v>1396.201954725534</v>
+        <v>1691.061536900538</v>
       </c>
       <c r="R3" t="n">
-        <v>166.9653026280978</v>
+        <v>200.7458211639616</v>
       </c>
       <c r="S3" t="n">
-        <v>166.9653026280978</v>
+        <v>200.7458211639616</v>
       </c>
       <c r="T3" t="n">
-        <v>166.9653026280978</v>
+        <v>200.7458211639616</v>
       </c>
       <c r="U3" t="n">
-        <v>83.48265131404891</v>
+        <v>100.3729105819808</v>
       </c>
     </row>
     <row r="4">
@@ -642,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>234.101912695244</v>
+        <v>259.5175076092873</v>
       </c>
       <c r="E4" t="n">
-        <v>318.5307353480862</v>
+        <v>389.276261413931</v>
       </c>
       <c r="F4" t="n">
-        <v>318.5307353480862</v>
+        <v>389.276261413931</v>
       </c>
       <c r="G4" t="n">
-        <v>-52.42338835408181</v>
+        <v>-64.78982588523255</v>
       </c>
       <c r="H4" t="n">
-        <v>-52.42338835408181</v>
+        <v>-64.78982588523255</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>318.5307353480862</v>
+        <v>389.276261413931</v>
       </c>
       <c r="M4" t="n">
-        <v>318.5307353480862</v>
+        <v>389.276261413931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>

--- a/results/ReqPowDATA.xlsx
+++ b/results/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.3729105819808</v>
+        <v>100.3660517394197</v>
       </c>
       <c r="C2" t="n">
-        <v>200.7458211639616</v>
+        <v>200.7321034788393</v>
       </c>
       <c r="D2" t="n">
-        <v>1288.669101436908</v>
+        <v>1288.591610602139</v>
       </c>
       <c r="E2" t="n">
-        <v>2007.458211639615</v>
+        <v>2007.321034788393</v>
       </c>
       <c r="F2" t="n">
-        <v>2007.458211639615</v>
+        <v>2007.321034788393</v>
       </c>
       <c r="G2" t="n">
-        <v>1808.512520348712</v>
+        <v>1808.3857062691</v>
       </c>
       <c r="H2" t="n">
-        <v>1808.512520348712</v>
+        <v>1808.3857062691</v>
       </c>
       <c r="I2" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="J2" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="K2" t="n">
-        <v>200.7458211639616</v>
+        <v>200.7321034788393</v>
       </c>
       <c r="L2" t="n">
-        <v>2007.458211639615</v>
+        <v>2007.321034788393</v>
       </c>
       <c r="M2" t="n">
-        <v>2007.458211639615</v>
+        <v>2007.321034788393</v>
       </c>
       <c r="N2" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="O2" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="P2" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="Q2" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="R2" t="n">
-        <v>200.7458211639616</v>
+        <v>200.7321034788393</v>
       </c>
       <c r="S2" t="n">
-        <v>200.7458211639616</v>
+        <v>200.7321034788393</v>
       </c>
       <c r="T2" t="n">
-        <v>200.7458211639616</v>
+        <v>200.7321034788393</v>
       </c>
       <c r="U2" t="n">
-        <v>100.3729105819808</v>
+        <v>100.3660517394197</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.3729105819808</v>
+        <v>100.3660517394197</v>
       </c>
       <c r="C3" t="n">
-        <v>200.7458211639616</v>
+        <v>200.7321034788393</v>
       </c>
       <c r="D3" t="n">
-        <v>1029.151593827621</v>
+        <v>1029.079783016859</v>
       </c>
       <c r="E3" t="n">
-        <v>1618.181950225684</v>
+        <v>1618.053293410472</v>
       </c>
       <c r="F3" t="n">
-        <v>1618.181950225684</v>
+        <v>1618.053293410472</v>
       </c>
       <c r="G3" t="n">
-        <v>1873.302346233945</v>
+        <v>1873.174114108322</v>
       </c>
       <c r="H3" t="n">
-        <v>1873.302346233945</v>
+        <v>1873.174114108322</v>
       </c>
       <c r="I3" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="J3" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="K3" t="n">
-        <v>200.7458211639616</v>
+        <v>200.7321034788393</v>
       </c>
       <c r="L3" t="n">
-        <v>1618.181950225684</v>
+        <v>1618.053293410472</v>
       </c>
       <c r="M3" t="n">
-        <v>1618.181950225684</v>
+        <v>1618.053293410472</v>
       </c>
       <c r="N3" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="O3" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="P3" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1691.061536900538</v>
+        <v>1690.945784702757</v>
       </c>
       <c r="R3" t="n">
-        <v>200.7458211639616</v>
+        <v>200.7321034788393</v>
       </c>
       <c r="S3" t="n">
-        <v>200.7458211639616</v>
+        <v>200.7321034788393</v>
       </c>
       <c r="T3" t="n">
-        <v>200.7458211639616</v>
+        <v>200.7321034788393</v>
       </c>
       <c r="U3" t="n">
-        <v>100.3729105819808</v>
+        <v>100.3660517394197</v>
       </c>
     </row>
     <row r="4">
@@ -642,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>259.5175076092873</v>
+        <v>259.5118275852806</v>
       </c>
       <c r="E4" t="n">
-        <v>389.276261413931</v>
+        <v>389.2677413779209</v>
       </c>
       <c r="F4" t="n">
-        <v>389.276261413931</v>
+        <v>389.2677413779209</v>
       </c>
       <c r="G4" t="n">
-        <v>-64.78982588523255</v>
+        <v>-64.78840783922166</v>
       </c>
       <c r="H4" t="n">
-        <v>-64.78982588523255</v>
+        <v>-64.78840783922166</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>389.276261413931</v>
+        <v>389.2677413779209</v>
       </c>
       <c r="M4" t="n">
-        <v>389.276261413931</v>
+        <v>389.2677413779209</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>

--- a/results/ReqPowDATA.xlsx
+++ b/results/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.3660517394197</v>
+        <v>88.4545441393966</v>
       </c>
       <c r="C2" t="n">
-        <v>200.7321034788393</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="D2" t="n">
-        <v>1288.591610602139</v>
+        <v>1101.96296801947</v>
       </c>
       <c r="E2" t="n">
-        <v>2007.321034788393</v>
+        <v>1769.090882787932</v>
       </c>
       <c r="F2" t="n">
-        <v>2007.321034788393</v>
+        <v>1769.090882787932</v>
       </c>
       <c r="G2" t="n">
-        <v>1808.3857062691</v>
+        <v>1590.364055129905</v>
       </c>
       <c r="H2" t="n">
-        <v>1808.3857062691</v>
+        <v>1590.364055129905</v>
       </c>
       <c r="I2" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="J2" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="K2" t="n">
-        <v>200.7321034788393</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="L2" t="n">
-        <v>2007.321034788393</v>
+        <v>1769.090882787932</v>
       </c>
       <c r="M2" t="n">
-        <v>2007.321034788393</v>
+        <v>1769.090882787932</v>
       </c>
       <c r="N2" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="O2" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="P2" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="Q2" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="R2" t="n">
-        <v>200.7321034788393</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="S2" t="n">
-        <v>200.7321034788393</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="T2" t="n">
-        <v>200.7321034788393</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="U2" t="n">
-        <v>100.3660517394197</v>
+        <v>88.4545441393966</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.3660517394197</v>
+        <v>88.4545441393966</v>
       </c>
       <c r="C3" t="n">
-        <v>200.7321034788393</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="D3" t="n">
-        <v>1029.079783016859</v>
+        <v>886.5192438262889</v>
       </c>
       <c r="E3" t="n">
-        <v>1618.053293410472</v>
+        <v>1437.033505445532</v>
       </c>
       <c r="F3" t="n">
-        <v>1618.053293410472</v>
+        <v>1437.033505445532</v>
       </c>
       <c r="G3" t="n">
-        <v>1873.174114108322</v>
+        <v>1645.013641234165</v>
       </c>
       <c r="H3" t="n">
-        <v>1873.174114108322</v>
+        <v>1645.013641234165</v>
       </c>
       <c r="I3" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="J3" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="K3" t="n">
-        <v>200.7321034788393</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="L3" t="n">
-        <v>1618.053293410472</v>
+        <v>1437.033505445532</v>
       </c>
       <c r="M3" t="n">
-        <v>1618.053293410472</v>
+        <v>1437.033505445532</v>
       </c>
       <c r="N3" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="O3" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="P3" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="Q3" t="n">
-        <v>1690.945784702757</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="R3" t="n">
-        <v>200.7321034788393</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="S3" t="n">
-        <v>200.7321034788393</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="T3" t="n">
-        <v>200.7321034788393</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="U3" t="n">
-        <v>100.3660517394197</v>
+        <v>88.4545441393966</v>
       </c>
     </row>
     <row r="4">
@@ -642,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>259.5118275852806</v>
+        <v>215.443724193181</v>
       </c>
       <c r="E4" t="n">
-        <v>389.2677413779209</v>
+        <v>332.0573773423994</v>
       </c>
       <c r="F4" t="n">
-        <v>389.2677413779209</v>
+        <v>332.0573773423994</v>
       </c>
       <c r="G4" t="n">
-        <v>-64.78840783922166</v>
+        <v>-54.64958610426001</v>
       </c>
       <c r="H4" t="n">
-        <v>-64.78840783922166</v>
+        <v>-54.64958610426001</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>389.2677413779209</v>
+        <v>332.0573773423994</v>
       </c>
       <c r="M4" t="n">
-        <v>389.2677413779209</v>
+        <v>332.0573773423994</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
